--- a/product_launch.xlsx
+++ b/product_launch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tutorials\Unit 4\Tutorial 4.3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D4E88A-8648-4115-9B6B-FE7BDF89683C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED21EC36-5A2C-434B-83E0-5EEC48A3F477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="0" windowWidth="18195" windowHeight="26115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2960" yWindow="2960" windowWidth="18720" windowHeight="11650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -366,7 +366,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,10 +715,10 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -727,10 +727,10 @@
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,7 +756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -782,7 +782,7 @@
         <v>78.3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -808,7 +808,7 @@
         <v>49.97</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -834,7 +834,7 @@
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -860,7 +860,7 @@
         <v>7.65</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -886,7 +886,7 @@
         <v>12.47</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -912,7 +912,7 @@
         <v>47.33</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -938,7 +938,7 @@
         <v>20.37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -964,7 +964,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -990,7 +990,7 @@
         <v>99.14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>39.42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>18.739999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>82.99</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>34.97</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>50.53</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>27.26</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>75.540000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>13.97</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>94.74</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>97.53</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>36.43</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>43.17</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>71.86</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>73.59</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>81.88</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>8.0399999999999991</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>20.079999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>24.52</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>82.96</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>18.02</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>8.32</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>41.35</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>81.67</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>24.36</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>75.13</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>82.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>14.99</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>10.46</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>74.53</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>22.26</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>15.39</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>80.209999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>32.06</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>9.7200000000000006</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>25.84</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>20.62</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>56.44</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>65.349999999999994</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>17.02</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>68.739999999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>75.28</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>90.67</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>28.95</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>67.099999999999994</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>12.97</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>45.06</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>18.07</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>69.2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>97.66</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>68.06</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>16.05</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>40.07</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>29.35</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>59.04</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>84.02</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>20.260000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>96.78</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>91.21</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>10.039999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>28.91</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>22.44</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>92.69</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>9.27</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>31.72</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>52.22</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>74.8</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>58.55</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>97.85</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>16.88</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>28.82</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>90.07</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>38.61</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>70.56</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>67.72</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>16.22</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>37.56</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>77.56</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>95.04</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>73.709999999999994</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>5.86</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>20.63</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -3362,20 +3362,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c7bf0040-ac83-4da7-b072-3c1b65a214b3" xsi:nil="true"/>
-    <Status xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
-    <Tag xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
-    <Year xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DD084E42E705654B9CF1FB4D1B6F86C3" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="537e09eec9479df6b3b9277a829eeea6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xmlns:ns3="c7bf0040-ac83-4da7-b072-3c1b65a214b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="954325e78edeaac226e03e3e0adada46" ns2:_="" ns3:_="">
     <xsd:import namespace="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
@@ -3639,6 +3625,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c7bf0040-ac83-4da7-b072-3c1b65a214b3" xsi:nil="true"/>
+    <Status xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
+    <Tag xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
+    <Year xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3649,39 +3649,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BAFE7E8-E9C5-4628-852F-9E040C11BC17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
-    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B819BBC-1B57-453F-9F50-D16059426A2D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B819BBC-1B57-453F-9F50-D16059426A2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
-    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BAFE7E8-E9C5-4628-852F-9E040C11BC17}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2CCBC16-DFBF-4D97-943B-329C0D2E55B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2CCBC16-DFBF-4D97-943B-329C0D2E55B6}"/>
 </file>